--- a/backend/fms_core/static/submission_templates/Normalization_planning_v4_4_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Normalization_planning_v4_4_0.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
   <si>
     <t xml:space="preserve">Sample and Library Normalization Planning Template</t>
   </si>
@@ -144,6 +144,12 @@
     <t xml:space="preserve">Source Container Coord</t>
   </si>
   <si>
+    <t xml:space="preserve">Source Container Location Barcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source Container Location Coord</t>
+  </si>
+  <si>
     <t xml:space="preserve">Destination Container Barcode</t>
   </si>
   <si>
@@ -211,6 +217,12 @@
   </si>
   <si>
     <t xml:space="preserve">Coordinate of the source sample within the container. Using the alphanumerical coordinates names (e.g. A01).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique barcode of the parent  of the container holding the source sample.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordinate of the Source Container in its parent container. e.g. the coordinate of a tube in his rack. Using the alphanumerical coordinates names (e.g. A01). </t>
   </si>
   <si>
     <t xml:space="preserve">Unique barcode of the container holding the normalized sample.</t>
@@ -657,7 +669,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P1002"/>
+  <dimension ref="A1:R1002"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -665,7 +677,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="24.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.86"/>
@@ -678,11 +690,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="26.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="27.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="28.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="17" style="0" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="31.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="28.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="22.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="22.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="28.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="19" style="0" width="10.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -720,22 +734,24 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -749,19 +765,19 @@
       <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -770,16 +786,16 @@
       <c r="J5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="9" t="s">
         <v>20</v>
       </c>
       <c r="O5" s="7" t="s">
@@ -788,4093 +804,4533 @@
       <c r="P5" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="Q5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="H6" s="10"/>
+      <c r="H6" s="2"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="H7" s="10"/>
+      <c r="H7" s="2"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="H8" s="10"/>
+      <c r="H8" s="2"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="H9" s="10"/>
+      <c r="H9" s="2"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="H10" s="10"/>
+      <c r="H10" s="2"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="H11" s="10"/>
+      <c r="H11" s="2"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="H12" s="10"/>
+      <c r="H12" s="2"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="H13" s="10"/>
+      <c r="H13" s="2"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="H14" s="10"/>
+      <c r="H14" s="2"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="H15" s="10"/>
+      <c r="H15" s="2"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="H16" s="10"/>
+      <c r="H16" s="2"/>
+      <c r="J16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="H17" s="10"/>
+      <c r="H17" s="2"/>
+      <c r="J17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="H18" s="10"/>
+      <c r="H18" s="2"/>
+      <c r="J18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="H19" s="10"/>
+      <c r="H19" s="2"/>
+      <c r="J19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="H20" s="10"/>
+      <c r="H20" s="2"/>
+      <c r="J20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="H21" s="10"/>
+      <c r="H21" s="2"/>
+      <c r="J21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="H22" s="10"/>
+      <c r="H22" s="2"/>
+      <c r="J22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="H23" s="10"/>
+      <c r="H23" s="2"/>
+      <c r="J23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="H24" s="10"/>
+      <c r="H24" s="2"/>
+      <c r="J24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="H25" s="10"/>
+      <c r="H25" s="2"/>
+      <c r="J25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="H26" s="10"/>
+      <c r="H26" s="2"/>
+      <c r="J26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="H27" s="10"/>
+      <c r="H27" s="2"/>
+      <c r="J27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="H28" s="10"/>
+      <c r="H28" s="2"/>
+      <c r="J28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="H29" s="10"/>
+      <c r="H29" s="2"/>
+      <c r="J29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="H30" s="10"/>
+      <c r="H30" s="2"/>
+      <c r="J30" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="H31" s="10"/>
+      <c r="H31" s="2"/>
+      <c r="J31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="H32" s="10"/>
+      <c r="H32" s="2"/>
+      <c r="J32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="H33" s="10"/>
+      <c r="H33" s="2"/>
+      <c r="J33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="H34" s="10"/>
+      <c r="H34" s="2"/>
+      <c r="J34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="H35" s="10"/>
+      <c r="H35" s="2"/>
+      <c r="J35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="H36" s="10"/>
+      <c r="H36" s="2"/>
+      <c r="J36" s="10"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="H37" s="10"/>
+      <c r="H37" s="2"/>
+      <c r="J37" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="H38" s="10"/>
+      <c r="H38" s="2"/>
+      <c r="J38" s="10"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="H39" s="10"/>
+      <c r="H39" s="2"/>
+      <c r="J39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-      <c r="H40" s="10"/>
+      <c r="H40" s="2"/>
+      <c r="J40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="H41" s="10"/>
+      <c r="H41" s="2"/>
+      <c r="J41" s="10"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="H42" s="10"/>
+      <c r="H42" s="2"/>
+      <c r="J42" s="10"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="H43" s="10"/>
+      <c r="H43" s="2"/>
+      <c r="J43" s="10"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="H44" s="10"/>
+      <c r="H44" s="2"/>
+      <c r="J44" s="10"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="H45" s="10"/>
+      <c r="H45" s="2"/>
+      <c r="J45" s="10"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-      <c r="H46" s="10"/>
+      <c r="H46" s="2"/>
+      <c r="J46" s="10"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-      <c r="H47" s="10"/>
+      <c r="H47" s="2"/>
+      <c r="J47" s="10"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="H48" s="10"/>
+      <c r="H48" s="2"/>
+      <c r="J48" s="10"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-      <c r="H49" s="10"/>
+      <c r="H49" s="2"/>
+      <c r="J49" s="10"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-      <c r="H50" s="10"/>
+      <c r="H50" s="2"/>
+      <c r="J50" s="10"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="H51" s="10"/>
+      <c r="H51" s="2"/>
+      <c r="J51" s="10"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="H52" s="10"/>
+      <c r="H52" s="2"/>
+      <c r="J52" s="10"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
       <c r="F53" s="2"/>
-      <c r="H53" s="10"/>
+      <c r="H53" s="2"/>
+      <c r="J53" s="10"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-      <c r="H54" s="10"/>
+      <c r="H54" s="2"/>
+      <c r="J54" s="10"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-      <c r="H55" s="10"/>
+      <c r="H55" s="2"/>
+      <c r="J55" s="10"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-      <c r="H56" s="10"/>
+      <c r="H56" s="2"/>
+      <c r="J56" s="10"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
       <c r="F57" s="2"/>
-      <c r="H57" s="10"/>
+      <c r="H57" s="2"/>
+      <c r="J57" s="10"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-      <c r="H58" s="10"/>
+      <c r="H58" s="2"/>
+      <c r="J58" s="10"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-      <c r="H59" s="10"/>
+      <c r="H59" s="2"/>
+      <c r="J59" s="10"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
       <c r="F60" s="2"/>
-      <c r="H60" s="10"/>
+      <c r="H60" s="2"/>
+      <c r="J60" s="10"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
       <c r="F61" s="2"/>
-      <c r="H61" s="10"/>
+      <c r="H61" s="2"/>
+      <c r="J61" s="10"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
       <c r="F62" s="2"/>
-      <c r="H62" s="10"/>
+      <c r="H62" s="2"/>
+      <c r="J62" s="10"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
       <c r="F63" s="2"/>
-      <c r="H63" s="10"/>
+      <c r="H63" s="2"/>
+      <c r="J63" s="10"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
       <c r="F64" s="2"/>
-      <c r="H64" s="10"/>
+      <c r="H64" s="2"/>
+      <c r="J64" s="10"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
       <c r="F65" s="2"/>
-      <c r="H65" s="10"/>
+      <c r="H65" s="2"/>
+      <c r="J65" s="10"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
       <c r="F66" s="2"/>
-      <c r="H66" s="10"/>
+      <c r="H66" s="2"/>
+      <c r="J66" s="10"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
       <c r="F67" s="2"/>
-      <c r="H67" s="10"/>
+      <c r="H67" s="2"/>
+      <c r="J67" s="10"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
       <c r="F68" s="2"/>
-      <c r="H68" s="10"/>
+      <c r="H68" s="2"/>
+      <c r="J68" s="10"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
       <c r="F69" s="2"/>
-      <c r="H69" s="10"/>
+      <c r="H69" s="2"/>
+      <c r="J69" s="10"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
       <c r="F70" s="2"/>
-      <c r="H70" s="10"/>
+      <c r="H70" s="2"/>
+      <c r="J70" s="10"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
       <c r="F71" s="2"/>
-      <c r="H71" s="10"/>
+      <c r="H71" s="2"/>
+      <c r="J71" s="10"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
       <c r="F72" s="2"/>
-      <c r="H72" s="10"/>
+      <c r="H72" s="2"/>
+      <c r="J72" s="10"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
       <c r="F73" s="2"/>
-      <c r="H73" s="10"/>
+      <c r="H73" s="2"/>
+      <c r="J73" s="10"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
       <c r="F74" s="2"/>
-      <c r="H74" s="10"/>
+      <c r="H74" s="2"/>
+      <c r="J74" s="10"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
       <c r="F75" s="2"/>
-      <c r="H75" s="10"/>
+      <c r="H75" s="2"/>
+      <c r="J75" s="10"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
       <c r="F76" s="2"/>
-      <c r="H76" s="10"/>
+      <c r="H76" s="2"/>
+      <c r="J76" s="10"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
       <c r="F77" s="2"/>
-      <c r="H77" s="10"/>
+      <c r="H77" s="2"/>
+      <c r="J77" s="10"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
       <c r="F78" s="2"/>
-      <c r="H78" s="10"/>
+      <c r="H78" s="2"/>
+      <c r="J78" s="10"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
       <c r="F79" s="2"/>
-      <c r="H79" s="10"/>
+      <c r="H79" s="2"/>
+      <c r="J79" s="10"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
       <c r="F80" s="2"/>
-      <c r="H80" s="10"/>
+      <c r="H80" s="2"/>
+      <c r="J80" s="10"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
       <c r="F81" s="2"/>
-      <c r="H81" s="10"/>
+      <c r="H81" s="2"/>
+      <c r="J81" s="10"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
       <c r="F82" s="2"/>
-      <c r="H82" s="10"/>
+      <c r="H82" s="2"/>
+      <c r="J82" s="10"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
       <c r="F83" s="2"/>
-      <c r="H83" s="10"/>
+      <c r="H83" s="2"/>
+      <c r="J83" s="10"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
       <c r="F84" s="2"/>
-      <c r="H84" s="10"/>
+      <c r="H84" s="2"/>
+      <c r="J84" s="10"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
       <c r="F85" s="2"/>
-      <c r="H85" s="10"/>
+      <c r="H85" s="2"/>
+      <c r="J85" s="10"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
       <c r="F86" s="2"/>
-      <c r="H86" s="10"/>
+      <c r="H86" s="2"/>
+      <c r="J86" s="10"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
       <c r="F87" s="2"/>
-      <c r="H87" s="10"/>
+      <c r="H87" s="2"/>
+      <c r="J87" s="10"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
       <c r="F88" s="2"/>
-      <c r="H88" s="10"/>
+      <c r="H88" s="2"/>
+      <c r="J88" s="10"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
       <c r="F89" s="2"/>
-      <c r="H89" s="10"/>
+      <c r="H89" s="2"/>
+      <c r="J89" s="10"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
       <c r="F90" s="2"/>
-      <c r="H90" s="10"/>
+      <c r="H90" s="2"/>
+      <c r="J90" s="10"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
       <c r="F91" s="2"/>
-      <c r="H91" s="10"/>
+      <c r="H91" s="2"/>
+      <c r="J91" s="10"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
       <c r="F92" s="2"/>
-      <c r="H92" s="10"/>
+      <c r="H92" s="2"/>
+      <c r="J92" s="10"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
       <c r="F93" s="2"/>
-      <c r="H93" s="10"/>
+      <c r="H93" s="2"/>
+      <c r="J93" s="10"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
       <c r="F94" s="2"/>
-      <c r="H94" s="10"/>
+      <c r="H94" s="2"/>
+      <c r="J94" s="10"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
       <c r="F95" s="2"/>
-      <c r="H95" s="10"/>
+      <c r="H95" s="2"/>
+      <c r="J95" s="10"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
       <c r="F96" s="2"/>
-      <c r="H96" s="10"/>
+      <c r="H96" s="2"/>
+      <c r="J96" s="10"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
       <c r="F97" s="2"/>
-      <c r="H97" s="10"/>
+      <c r="H97" s="2"/>
+      <c r="J97" s="10"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
       <c r="F98" s="2"/>
-      <c r="H98" s="10"/>
+      <c r="H98" s="2"/>
+      <c r="J98" s="10"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
       <c r="F99" s="2"/>
-      <c r="H99" s="10"/>
+      <c r="H99" s="2"/>
+      <c r="J99" s="10"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
       <c r="F100" s="2"/>
-      <c r="H100" s="10"/>
+      <c r="H100" s="2"/>
+      <c r="J100" s="10"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
       <c r="F101" s="2"/>
-      <c r="H101" s="10"/>
+      <c r="H101" s="2"/>
+      <c r="J101" s="10"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
       <c r="F102" s="2"/>
-      <c r="H102" s="10"/>
+      <c r="H102" s="2"/>
+      <c r="J102" s="10"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
       <c r="F103" s="2"/>
-      <c r="H103" s="10"/>
+      <c r="H103" s="2"/>
+      <c r="J103" s="10"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
       <c r="F104" s="2"/>
-      <c r="H104" s="10"/>
+      <c r="H104" s="2"/>
+      <c r="J104" s="10"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
       <c r="F105" s="2"/>
-      <c r="H105" s="10"/>
+      <c r="H105" s="2"/>
+      <c r="J105" s="10"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
       <c r="F106" s="2"/>
-      <c r="H106" s="10"/>
+      <c r="H106" s="2"/>
+      <c r="J106" s="10"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
       <c r="F107" s="2"/>
-      <c r="H107" s="10"/>
+      <c r="H107" s="2"/>
+      <c r="J107" s="10"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
       <c r="F108" s="2"/>
-      <c r="H108" s="10"/>
+      <c r="H108" s="2"/>
+      <c r="J108" s="10"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
       <c r="F109" s="2"/>
-      <c r="H109" s="10"/>
+      <c r="H109" s="2"/>
+      <c r="J109" s="10"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
       <c r="F110" s="2"/>
-      <c r="H110" s="10"/>
+      <c r="H110" s="2"/>
+      <c r="J110" s="10"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
       <c r="F111" s="2"/>
-      <c r="H111" s="10"/>
+      <c r="H111" s="2"/>
+      <c r="J111" s="10"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
       <c r="F112" s="2"/>
-      <c r="H112" s="10"/>
+      <c r="H112" s="2"/>
+      <c r="J112" s="10"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
       <c r="F113" s="2"/>
-      <c r="H113" s="10"/>
+      <c r="H113" s="2"/>
+      <c r="J113" s="10"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
       <c r="F114" s="2"/>
-      <c r="H114" s="10"/>
+      <c r="H114" s="2"/>
+      <c r="J114" s="10"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
       <c r="F115" s="2"/>
-      <c r="H115" s="10"/>
+      <c r="H115" s="2"/>
+      <c r="J115" s="10"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
       <c r="F116" s="2"/>
-      <c r="H116" s="10"/>
+      <c r="H116" s="2"/>
+      <c r="J116" s="10"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
       <c r="F117" s="2"/>
-      <c r="H117" s="10"/>
+      <c r="H117" s="2"/>
+      <c r="J117" s="10"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
       <c r="F118" s="2"/>
-      <c r="H118" s="10"/>
+      <c r="H118" s="2"/>
+      <c r="J118" s="10"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
       <c r="F119" s="2"/>
-      <c r="H119" s="10"/>
+      <c r="H119" s="2"/>
+      <c r="J119" s="10"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
       <c r="F120" s="2"/>
-      <c r="H120" s="10"/>
+      <c r="H120" s="2"/>
+      <c r="J120" s="10"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
       <c r="F121" s="2"/>
-      <c r="H121" s="10"/>
+      <c r="H121" s="2"/>
+      <c r="J121" s="10"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
       <c r="F122" s="2"/>
-      <c r="H122" s="10"/>
+      <c r="H122" s="2"/>
+      <c r="J122" s="10"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
       <c r="F123" s="2"/>
-      <c r="H123" s="10"/>
+      <c r="H123" s="2"/>
+      <c r="J123" s="10"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
       <c r="F124" s="2"/>
-      <c r="H124" s="10"/>
+      <c r="H124" s="2"/>
+      <c r="J124" s="10"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
       <c r="F125" s="2"/>
-      <c r="H125" s="10"/>
+      <c r="H125" s="2"/>
+      <c r="J125" s="10"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
       <c r="F126" s="2"/>
-      <c r="H126" s="10"/>
+      <c r="H126" s="2"/>
+      <c r="J126" s="10"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
       <c r="F127" s="2"/>
-      <c r="H127" s="10"/>
+      <c r="H127" s="2"/>
+      <c r="J127" s="10"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
       <c r="F128" s="2"/>
-      <c r="H128" s="10"/>
+      <c r="H128" s="2"/>
+      <c r="J128" s="10"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
       <c r="F129" s="2"/>
-      <c r="H129" s="10"/>
+      <c r="H129" s="2"/>
+      <c r="J129" s="10"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
       <c r="F130" s="2"/>
-      <c r="H130" s="10"/>
+      <c r="H130" s="2"/>
+      <c r="J130" s="10"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
       <c r="F131" s="2"/>
-      <c r="H131" s="10"/>
+      <c r="H131" s="2"/>
+      <c r="J131" s="10"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
       <c r="F132" s="2"/>
-      <c r="H132" s="10"/>
+      <c r="H132" s="2"/>
+      <c r="J132" s="10"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
       <c r="F133" s="2"/>
-      <c r="H133" s="10"/>
+      <c r="H133" s="2"/>
+      <c r="J133" s="10"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
       <c r="F134" s="2"/>
-      <c r="H134" s="10"/>
+      <c r="H134" s="2"/>
+      <c r="J134" s="10"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
       <c r="F135" s="2"/>
-      <c r="H135" s="10"/>
+      <c r="H135" s="2"/>
+      <c r="J135" s="10"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
       <c r="F136" s="2"/>
-      <c r="H136" s="10"/>
+      <c r="H136" s="2"/>
+      <c r="J136" s="10"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
       <c r="F137" s="2"/>
-      <c r="H137" s="10"/>
+      <c r="H137" s="2"/>
+      <c r="J137" s="10"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
       <c r="F138" s="2"/>
-      <c r="H138" s="10"/>
+      <c r="H138" s="2"/>
+      <c r="J138" s="10"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
       <c r="F139" s="2"/>
-      <c r="H139" s="10"/>
+      <c r="H139" s="2"/>
+      <c r="J139" s="10"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
       <c r="F140" s="2"/>
-      <c r="H140" s="10"/>
+      <c r="H140" s="2"/>
+      <c r="J140" s="10"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
       <c r="F141" s="2"/>
-      <c r="H141" s="10"/>
+      <c r="H141" s="2"/>
+      <c r="J141" s="10"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
       <c r="F142" s="2"/>
-      <c r="H142" s="10"/>
+      <c r="H142" s="2"/>
+      <c r="J142" s="10"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
       <c r="F143" s="2"/>
-      <c r="H143" s="10"/>
+      <c r="H143" s="2"/>
+      <c r="J143" s="10"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
       <c r="F144" s="2"/>
-      <c r="H144" s="10"/>
+      <c r="H144" s="2"/>
+      <c r="J144" s="10"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
       <c r="F145" s="2"/>
-      <c r="H145" s="10"/>
+      <c r="H145" s="2"/>
+      <c r="J145" s="10"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
       <c r="F146" s="2"/>
-      <c r="H146" s="10"/>
+      <c r="H146" s="2"/>
+      <c r="J146" s="10"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
       <c r="F147" s="2"/>
-      <c r="H147" s="10"/>
+      <c r="H147" s="2"/>
+      <c r="J147" s="10"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
       <c r="F148" s="2"/>
-      <c r="H148" s="10"/>
+      <c r="H148" s="2"/>
+      <c r="J148" s="10"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
       <c r="F149" s="2"/>
-      <c r="H149" s="10"/>
+      <c r="H149" s="2"/>
+      <c r="J149" s="10"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
       <c r="F150" s="2"/>
-      <c r="H150" s="10"/>
+      <c r="H150" s="2"/>
+      <c r="J150" s="10"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
       <c r="F151" s="2"/>
-      <c r="H151" s="10"/>
+      <c r="H151" s="2"/>
+      <c r="J151" s="10"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
       <c r="F152" s="2"/>
-      <c r="H152" s="10"/>
+      <c r="H152" s="2"/>
+      <c r="J152" s="10"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
       <c r="F153" s="2"/>
-      <c r="H153" s="10"/>
+      <c r="H153" s="2"/>
+      <c r="J153" s="10"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
       <c r="F154" s="2"/>
-      <c r="H154" s="10"/>
+      <c r="H154" s="2"/>
+      <c r="J154" s="10"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
       <c r="F155" s="2"/>
-      <c r="H155" s="10"/>
+      <c r="H155" s="2"/>
+      <c r="J155" s="10"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
       <c r="F156" s="2"/>
-      <c r="H156" s="10"/>
+      <c r="H156" s="2"/>
+      <c r="J156" s="10"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
       <c r="F157" s="2"/>
-      <c r="H157" s="10"/>
+      <c r="H157" s="2"/>
+      <c r="J157" s="10"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
       <c r="F158" s="2"/>
-      <c r="H158" s="10"/>
+      <c r="H158" s="2"/>
+      <c r="J158" s="10"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
       <c r="F159" s="2"/>
-      <c r="H159" s="10"/>
+      <c r="H159" s="2"/>
+      <c r="J159" s="10"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
       <c r="F160" s="2"/>
-      <c r="H160" s="10"/>
+      <c r="H160" s="2"/>
+      <c r="J160" s="10"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
       <c r="F161" s="2"/>
-      <c r="H161" s="10"/>
+      <c r="H161" s="2"/>
+      <c r="J161" s="10"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
       <c r="F162" s="2"/>
-      <c r="H162" s="10"/>
+      <c r="H162" s="2"/>
+      <c r="J162" s="10"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
       <c r="F163" s="2"/>
-      <c r="H163" s="10"/>
+      <c r="H163" s="2"/>
+      <c r="J163" s="10"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
       <c r="F164" s="2"/>
-      <c r="H164" s="10"/>
+      <c r="H164" s="2"/>
+      <c r="J164" s="10"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
       <c r="F165" s="2"/>
-      <c r="H165" s="10"/>
+      <c r="H165" s="2"/>
+      <c r="J165" s="10"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
       <c r="F166" s="2"/>
-      <c r="H166" s="10"/>
+      <c r="H166" s="2"/>
+      <c r="J166" s="10"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
       <c r="F167" s="2"/>
-      <c r="H167" s="10"/>
+      <c r="H167" s="2"/>
+      <c r="J167" s="10"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
       <c r="F168" s="2"/>
-      <c r="H168" s="10"/>
+      <c r="H168" s="2"/>
+      <c r="J168" s="10"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
       <c r="F169" s="2"/>
-      <c r="H169" s="10"/>
+      <c r="H169" s="2"/>
+      <c r="J169" s="10"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
       <c r="F170" s="2"/>
-      <c r="H170" s="10"/>
+      <c r="H170" s="2"/>
+      <c r="J170" s="10"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
       <c r="F171" s="2"/>
-      <c r="H171" s="10"/>
+      <c r="H171" s="2"/>
+      <c r="J171" s="10"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
       <c r="F172" s="2"/>
-      <c r="H172" s="10"/>
+      <c r="H172" s="2"/>
+      <c r="J172" s="10"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
       <c r="F173" s="2"/>
-      <c r="H173" s="10"/>
+      <c r="H173" s="2"/>
+      <c r="J173" s="10"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
       <c r="F174" s="2"/>
-      <c r="H174" s="10"/>
+      <c r="H174" s="2"/>
+      <c r="J174" s="10"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
       <c r="F175" s="2"/>
-      <c r="H175" s="10"/>
+      <c r="H175" s="2"/>
+      <c r="J175" s="10"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
       <c r="F176" s="2"/>
-      <c r="H176" s="10"/>
+      <c r="H176" s="2"/>
+      <c r="J176" s="10"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
       <c r="F177" s="2"/>
-      <c r="H177" s="10"/>
+      <c r="H177" s="2"/>
+      <c r="J177" s="10"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
       <c r="F178" s="2"/>
-      <c r="H178" s="10"/>
+      <c r="H178" s="2"/>
+      <c r="J178" s="10"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
       <c r="F179" s="2"/>
-      <c r="H179" s="10"/>
+      <c r="H179" s="2"/>
+      <c r="J179" s="10"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
       <c r="F180" s="2"/>
-      <c r="H180" s="10"/>
+      <c r="H180" s="2"/>
+      <c r="J180" s="10"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
       <c r="F181" s="2"/>
-      <c r="H181" s="10"/>
+      <c r="H181" s="2"/>
+      <c r="J181" s="10"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
       <c r="F182" s="2"/>
-      <c r="H182" s="10"/>
+      <c r="H182" s="2"/>
+      <c r="J182" s="10"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
       <c r="F183" s="2"/>
-      <c r="H183" s="10"/>
+      <c r="H183" s="2"/>
+      <c r="J183" s="10"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
       <c r="F184" s="2"/>
-      <c r="H184" s="10"/>
+      <c r="H184" s="2"/>
+      <c r="J184" s="10"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
       <c r="F185" s="2"/>
-      <c r="H185" s="10"/>
+      <c r="H185" s="2"/>
+      <c r="J185" s="10"/>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
       <c r="F186" s="2"/>
-      <c r="H186" s="10"/>
+      <c r="H186" s="2"/>
+      <c r="J186" s="10"/>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
       <c r="F187" s="2"/>
-      <c r="H187" s="10"/>
+      <c r="H187" s="2"/>
+      <c r="J187" s="10"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
       <c r="F188" s="2"/>
-      <c r="H188" s="10"/>
+      <c r="H188" s="2"/>
+      <c r="J188" s="10"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
       <c r="F189" s="2"/>
-      <c r="H189" s="10"/>
+      <c r="H189" s="2"/>
+      <c r="J189" s="10"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
       <c r="F190" s="2"/>
-      <c r="H190" s="10"/>
+      <c r="H190" s="2"/>
+      <c r="J190" s="10"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
       <c r="F191" s="2"/>
-      <c r="H191" s="10"/>
+      <c r="H191" s="2"/>
+      <c r="J191" s="10"/>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
       <c r="F192" s="2"/>
-      <c r="H192" s="10"/>
+      <c r="H192" s="2"/>
+      <c r="J192" s="10"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
       <c r="F193" s="2"/>
-      <c r="H193" s="10"/>
+      <c r="H193" s="2"/>
+      <c r="J193" s="10"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
       <c r="F194" s="2"/>
-      <c r="H194" s="10"/>
+      <c r="H194" s="2"/>
+      <c r="J194" s="10"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
       <c r="F195" s="2"/>
-      <c r="H195" s="10"/>
+      <c r="H195" s="2"/>
+      <c r="J195" s="10"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
       <c r="F196" s="2"/>
-      <c r="H196" s="10"/>
+      <c r="H196" s="2"/>
+      <c r="J196" s="10"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
       <c r="F197" s="2"/>
-      <c r="H197" s="10"/>
+      <c r="H197" s="2"/>
+      <c r="J197" s="10"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
       <c r="F198" s="2"/>
-      <c r="H198" s="10"/>
+      <c r="H198" s="2"/>
+      <c r="J198" s="10"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
       <c r="F199" s="2"/>
-      <c r="H199" s="10"/>
+      <c r="H199" s="2"/>
+      <c r="J199" s="10"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
       <c r="F200" s="2"/>
-      <c r="H200" s="10"/>
+      <c r="H200" s="2"/>
+      <c r="J200" s="10"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
       <c r="F201" s="2"/>
-      <c r="H201" s="10"/>
+      <c r="H201" s="2"/>
+      <c r="J201" s="10"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
       <c r="F202" s="2"/>
-      <c r="H202" s="10"/>
+      <c r="H202" s="2"/>
+      <c r="J202" s="10"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
       <c r="F203" s="2"/>
-      <c r="H203" s="10"/>
+      <c r="H203" s="2"/>
+      <c r="J203" s="10"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
       <c r="F204" s="2"/>
-      <c r="H204" s="10"/>
+      <c r="H204" s="2"/>
+      <c r="J204" s="10"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
       <c r="F205" s="2"/>
-      <c r="H205" s="10"/>
+      <c r="H205" s="2"/>
+      <c r="J205" s="10"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
       <c r="F206" s="2"/>
-      <c r="H206" s="10"/>
+      <c r="H206" s="2"/>
+      <c r="J206" s="10"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
       <c r="F207" s="2"/>
-      <c r="H207" s="10"/>
+      <c r="H207" s="2"/>
+      <c r="J207" s="10"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
       <c r="F208" s="2"/>
-      <c r="H208" s="10"/>
+      <c r="H208" s="2"/>
+      <c r="J208" s="10"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
       <c r="F209" s="2"/>
-      <c r="H209" s="10"/>
+      <c r="H209" s="2"/>
+      <c r="J209" s="10"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
       <c r="F210" s="2"/>
-      <c r="H210" s="10"/>
+      <c r="H210" s="2"/>
+      <c r="J210" s="10"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
       <c r="F211" s="2"/>
-      <c r="H211" s="10"/>
+      <c r="H211" s="2"/>
+      <c r="J211" s="10"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
       <c r="F212" s="2"/>
-      <c r="H212" s="10"/>
+      <c r="H212" s="2"/>
+      <c r="J212" s="10"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
       <c r="F213" s="2"/>
-      <c r="H213" s="10"/>
+      <c r="H213" s="2"/>
+      <c r="J213" s="10"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
       <c r="F214" s="2"/>
-      <c r="H214" s="10"/>
+      <c r="H214" s="2"/>
+      <c r="J214" s="10"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
       <c r="F215" s="2"/>
-      <c r="H215" s="10"/>
+      <c r="H215" s="2"/>
+      <c r="J215" s="10"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
       <c r="F216" s="2"/>
-      <c r="H216" s="10"/>
+      <c r="H216" s="2"/>
+      <c r="J216" s="10"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
       <c r="F217" s="2"/>
-      <c r="H217" s="10"/>
+      <c r="H217" s="2"/>
+      <c r="J217" s="10"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
       <c r="F218" s="2"/>
-      <c r="H218" s="10"/>
+      <c r="H218" s="2"/>
+      <c r="J218" s="10"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
       <c r="F219" s="2"/>
-      <c r="H219" s="10"/>
+      <c r="H219" s="2"/>
+      <c r="J219" s="10"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
       <c r="F220" s="2"/>
-      <c r="H220" s="10"/>
+      <c r="H220" s="2"/>
+      <c r="J220" s="10"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
       <c r="F221" s="2"/>
-      <c r="H221" s="10"/>
+      <c r="H221" s="2"/>
+      <c r="J221" s="10"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
       <c r="F222" s="2"/>
-      <c r="H222" s="10"/>
+      <c r="H222" s="2"/>
+      <c r="J222" s="10"/>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
-      <c r="E223" s="2"/>
-      <c r="H223" s="10"/>
+      <c r="G223" s="2"/>
+      <c r="J223" s="10"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
-      <c r="E224" s="2"/>
-      <c r="H224" s="10"/>
+      <c r="G224" s="2"/>
+      <c r="J224" s="10"/>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
-      <c r="E225" s="2"/>
-      <c r="H225" s="10"/>
+      <c r="G225" s="2"/>
+      <c r="J225" s="10"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
-      <c r="E226" s="2"/>
-      <c r="H226" s="10"/>
+      <c r="G226" s="2"/>
+      <c r="J226" s="10"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
-      <c r="E227" s="2"/>
-      <c r="H227" s="10"/>
+      <c r="G227" s="2"/>
+      <c r="J227" s="10"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
-      <c r="E228" s="2"/>
-      <c r="H228" s="10"/>
+      <c r="G228" s="2"/>
+      <c r="J228" s="10"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
-      <c r="E229" s="2"/>
-      <c r="H229" s="10"/>
+      <c r="G229" s="2"/>
+      <c r="J229" s="10"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
-      <c r="E230" s="2"/>
-      <c r="H230" s="10"/>
+      <c r="G230" s="2"/>
+      <c r="J230" s="10"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
-      <c r="E231" s="2"/>
-      <c r="H231" s="10"/>
+      <c r="G231" s="2"/>
+      <c r="J231" s="10"/>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
-      <c r="E232" s="2"/>
-      <c r="H232" s="10"/>
+      <c r="G232" s="2"/>
+      <c r="J232" s="10"/>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
-      <c r="E233" s="2"/>
-      <c r="H233" s="10"/>
+      <c r="G233" s="2"/>
+      <c r="J233" s="10"/>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
-      <c r="E234" s="2"/>
-      <c r="H234" s="10"/>
+      <c r="G234" s="2"/>
+      <c r="J234" s="10"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
-      <c r="E235" s="2"/>
-      <c r="H235" s="10"/>
+      <c r="G235" s="2"/>
+      <c r="J235" s="10"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
-      <c r="E236" s="2"/>
-      <c r="H236" s="10"/>
+      <c r="G236" s="2"/>
+      <c r="J236" s="10"/>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
-      <c r="E237" s="2"/>
-      <c r="H237" s="10"/>
+      <c r="G237" s="2"/>
+      <c r="J237" s="10"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
-      <c r="E238" s="2"/>
-      <c r="H238" s="10"/>
+      <c r="G238" s="2"/>
+      <c r="J238" s="10"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
-      <c r="E239" s="2"/>
-      <c r="H239" s="10"/>
+      <c r="G239" s="2"/>
+      <c r="J239" s="10"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
-      <c r="E240" s="2"/>
-      <c r="H240" s="10"/>
+      <c r="G240" s="2"/>
+      <c r="J240" s="10"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
-      <c r="E241" s="2"/>
-      <c r="H241" s="10"/>
+      <c r="G241" s="2"/>
+      <c r="J241" s="10"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
-      <c r="E242" s="2"/>
-      <c r="H242" s="10"/>
+      <c r="G242" s="2"/>
+      <c r="J242" s="10"/>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
-      <c r="E243" s="2"/>
-      <c r="H243" s="10"/>
+      <c r="G243" s="2"/>
+      <c r="J243" s="10"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
-      <c r="E244" s="2"/>
-      <c r="H244" s="10"/>
+      <c r="G244" s="2"/>
+      <c r="J244" s="10"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
-      <c r="E245" s="2"/>
-      <c r="H245" s="10"/>
+      <c r="G245" s="2"/>
+      <c r="J245" s="10"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
-      <c r="E246" s="2"/>
-      <c r="H246" s="10"/>
+      <c r="G246" s="2"/>
+      <c r="J246" s="10"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
-      <c r="E247" s="2"/>
-      <c r="H247" s="10"/>
+      <c r="G247" s="2"/>
+      <c r="J247" s="10"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
-      <c r="E248" s="2"/>
-      <c r="H248" s="10"/>
+      <c r="G248" s="2"/>
+      <c r="J248" s="10"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
-      <c r="E249" s="2"/>
-      <c r="H249" s="10"/>
+      <c r="G249" s="2"/>
+      <c r="J249" s="10"/>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
-      <c r="E250" s="2"/>
-      <c r="H250" s="10"/>
+      <c r="G250" s="2"/>
+      <c r="J250" s="10"/>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
-      <c r="E251" s="2"/>
-      <c r="H251" s="10"/>
+      <c r="G251" s="2"/>
+      <c r="J251" s="10"/>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
-      <c r="E252" s="2"/>
-      <c r="H252" s="10"/>
+      <c r="G252" s="2"/>
+      <c r="J252" s="10"/>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
-      <c r="E253" s="2"/>
-      <c r="H253" s="10"/>
+      <c r="G253" s="2"/>
+      <c r="J253" s="10"/>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
-      <c r="E254" s="2"/>
-      <c r="H254" s="10"/>
+      <c r="G254" s="2"/>
+      <c r="J254" s="10"/>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
-      <c r="E255" s="2"/>
-      <c r="H255" s="10"/>
+      <c r="G255" s="2"/>
+      <c r="J255" s="10"/>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
-      <c r="E256" s="2"/>
-      <c r="H256" s="10"/>
+      <c r="G256" s="2"/>
+      <c r="J256" s="10"/>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
-      <c r="E257" s="2"/>
-      <c r="H257" s="10"/>
+      <c r="G257" s="2"/>
+      <c r="J257" s="10"/>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
-      <c r="E258" s="2"/>
-      <c r="H258" s="10"/>
+      <c r="G258" s="2"/>
+      <c r="J258" s="10"/>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
-      <c r="E259" s="2"/>
-      <c r="H259" s="10"/>
+      <c r="G259" s="2"/>
+      <c r="J259" s="10"/>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
-      <c r="E260" s="2"/>
-      <c r="H260" s="10"/>
+      <c r="G260" s="2"/>
+      <c r="J260" s="10"/>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
-      <c r="E261" s="2"/>
-      <c r="H261" s="10"/>
+      <c r="G261" s="2"/>
+      <c r="J261" s="10"/>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
-      <c r="E262" s="2"/>
-      <c r="H262" s="10"/>
+      <c r="G262" s="2"/>
+      <c r="J262" s="10"/>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
-      <c r="E263" s="2"/>
-      <c r="H263" s="10"/>
+      <c r="G263" s="2"/>
+      <c r="J263" s="10"/>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
-      <c r="E264" s="2"/>
-      <c r="H264" s="10"/>
+      <c r="G264" s="2"/>
+      <c r="J264" s="10"/>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
-      <c r="E265" s="2"/>
-      <c r="H265" s="10"/>
+      <c r="G265" s="2"/>
+      <c r="J265" s="10"/>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
-      <c r="E266" s="2"/>
-      <c r="H266" s="10"/>
+      <c r="G266" s="2"/>
+      <c r="J266" s="10"/>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
-      <c r="E267" s="2"/>
-      <c r="H267" s="10"/>
+      <c r="G267" s="2"/>
+      <c r="J267" s="10"/>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
-      <c r="E268" s="2"/>
-      <c r="H268" s="10"/>
+      <c r="G268" s="2"/>
+      <c r="J268" s="10"/>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
-      <c r="E269" s="2"/>
-      <c r="H269" s="10"/>
+      <c r="G269" s="2"/>
+      <c r="J269" s="10"/>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
-      <c r="E270" s="2"/>
-      <c r="H270" s="10"/>
+      <c r="G270" s="2"/>
+      <c r="J270" s="10"/>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
-      <c r="E271" s="2"/>
-      <c r="H271" s="10"/>
+      <c r="G271" s="2"/>
+      <c r="J271" s="10"/>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
-      <c r="E272" s="2"/>
-      <c r="H272" s="10"/>
+      <c r="G272" s="2"/>
+      <c r="J272" s="10"/>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
-      <c r="E273" s="2"/>
-      <c r="H273" s="10"/>
+      <c r="G273" s="2"/>
+      <c r="J273" s="10"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
-      <c r="E274" s="2"/>
-      <c r="H274" s="10"/>
+      <c r="G274" s="2"/>
+      <c r="J274" s="10"/>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
-      <c r="E275" s="2"/>
-      <c r="H275" s="10"/>
+      <c r="G275" s="2"/>
+      <c r="J275" s="10"/>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
-      <c r="E276" s="2"/>
-      <c r="H276" s="10"/>
+      <c r="G276" s="2"/>
+      <c r="J276" s="10"/>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
-      <c r="E277" s="2"/>
-      <c r="H277" s="10"/>
+      <c r="G277" s="2"/>
+      <c r="J277" s="10"/>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
-      <c r="E278" s="2"/>
-      <c r="H278" s="10"/>
+      <c r="G278" s="2"/>
+      <c r="J278" s="10"/>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
-      <c r="E279" s="2"/>
-      <c r="H279" s="10"/>
+      <c r="G279" s="2"/>
+      <c r="J279" s="10"/>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
-      <c r="E280" s="2"/>
-      <c r="H280" s="10"/>
+      <c r="G280" s="2"/>
+      <c r="J280" s="10"/>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
-      <c r="E281" s="2"/>
-      <c r="H281" s="10"/>
+      <c r="G281" s="2"/>
+      <c r="J281" s="10"/>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
-      <c r="E282" s="2"/>
-      <c r="H282" s="10"/>
+      <c r="G282" s="2"/>
+      <c r="J282" s="10"/>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
-      <c r="E283" s="2"/>
-      <c r="H283" s="10"/>
+      <c r="G283" s="2"/>
+      <c r="J283" s="10"/>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
-      <c r="E284" s="2"/>
-      <c r="H284" s="10"/>
+      <c r="G284" s="2"/>
+      <c r="J284" s="10"/>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
-      <c r="E285" s="2"/>
-      <c r="H285" s="10"/>
+      <c r="G285" s="2"/>
+      <c r="J285" s="10"/>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
-      <c r="E286" s="2"/>
-      <c r="H286" s="10"/>
+      <c r="G286" s="2"/>
+      <c r="J286" s="10"/>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
-      <c r="E287" s="2"/>
-      <c r="H287" s="10"/>
+      <c r="G287" s="2"/>
+      <c r="J287" s="10"/>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
-      <c r="E288" s="2"/>
-      <c r="H288" s="10"/>
+      <c r="G288" s="2"/>
+      <c r="J288" s="10"/>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
-      <c r="E289" s="2"/>
-      <c r="H289" s="10"/>
+      <c r="G289" s="2"/>
+      <c r="J289" s="10"/>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
-      <c r="E290" s="2"/>
-      <c r="H290" s="10"/>
+      <c r="G290" s="2"/>
+      <c r="J290" s="10"/>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
-      <c r="E291" s="2"/>
-      <c r="H291" s="10"/>
+      <c r="G291" s="2"/>
+      <c r="J291" s="10"/>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
-      <c r="E292" s="2"/>
-      <c r="H292" s="10"/>
+      <c r="G292" s="2"/>
+      <c r="J292" s="10"/>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
-      <c r="E293" s="2"/>
-      <c r="H293" s="10"/>
+      <c r="G293" s="2"/>
+      <c r="J293" s="10"/>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
-      <c r="E294" s="2"/>
-      <c r="H294" s="10"/>
+      <c r="G294" s="2"/>
+      <c r="J294" s="10"/>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
-      <c r="E295" s="2"/>
-      <c r="H295" s="10"/>
+      <c r="G295" s="2"/>
+      <c r="J295" s="10"/>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
-      <c r="E296" s="2"/>
-      <c r="H296" s="10"/>
+      <c r="G296" s="2"/>
+      <c r="J296" s="10"/>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
-      <c r="E297" s="2"/>
-      <c r="H297" s="10"/>
+      <c r="G297" s="2"/>
+      <c r="J297" s="10"/>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
-      <c r="E298" s="2"/>
-      <c r="H298" s="10"/>
+      <c r="G298" s="2"/>
+      <c r="J298" s="10"/>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
-      <c r="E299" s="2"/>
-      <c r="H299" s="10"/>
+      <c r="G299" s="2"/>
+      <c r="J299" s="10"/>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
-      <c r="E300" s="2"/>
-      <c r="H300" s="10"/>
+      <c r="G300" s="2"/>
+      <c r="J300" s="10"/>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
-      <c r="E301" s="2"/>
-      <c r="H301" s="10"/>
+      <c r="G301" s="2"/>
+      <c r="J301" s="10"/>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
-      <c r="E302" s="2"/>
-      <c r="H302" s="10"/>
+      <c r="G302" s="2"/>
+      <c r="J302" s="10"/>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
-      <c r="E303" s="2"/>
-      <c r="H303" s="10"/>
+      <c r="G303" s="2"/>
+      <c r="J303" s="10"/>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
-      <c r="E304" s="2"/>
-      <c r="H304" s="10"/>
+      <c r="G304" s="2"/>
+      <c r="J304" s="10"/>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
-      <c r="E305" s="2"/>
-      <c r="H305" s="10"/>
+      <c r="G305" s="2"/>
+      <c r="J305" s="10"/>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
-      <c r="E306" s="2"/>
-      <c r="H306" s="10"/>
+      <c r="G306" s="2"/>
+      <c r="J306" s="10"/>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
-      <c r="E307" s="2"/>
-      <c r="H307" s="10"/>
+      <c r="G307" s="2"/>
+      <c r="J307" s="10"/>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
-      <c r="E308" s="2"/>
-      <c r="H308" s="10"/>
+      <c r="G308" s="2"/>
+      <c r="J308" s="10"/>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
-      <c r="E309" s="2"/>
-      <c r="H309" s="10"/>
+      <c r="G309" s="2"/>
+      <c r="J309" s="10"/>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
-      <c r="E310" s="2"/>
-      <c r="H310" s="10"/>
+      <c r="G310" s="2"/>
+      <c r="J310" s="10"/>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
-      <c r="E311" s="2"/>
-      <c r="H311" s="10"/>
+      <c r="G311" s="2"/>
+      <c r="J311" s="10"/>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
-      <c r="E312" s="2"/>
-      <c r="H312" s="10"/>
+      <c r="G312" s="2"/>
+      <c r="J312" s="10"/>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
-      <c r="E313" s="2"/>
-      <c r="H313" s="10"/>
+      <c r="G313" s="2"/>
+      <c r="J313" s="10"/>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
-      <c r="E314" s="2"/>
-      <c r="H314" s="10"/>
+      <c r="G314" s="2"/>
+      <c r="J314" s="10"/>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
-      <c r="E315" s="2"/>
-      <c r="H315" s="10"/>
+      <c r="G315" s="2"/>
+      <c r="J315" s="10"/>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
-      <c r="E316" s="2"/>
-      <c r="H316" s="10"/>
+      <c r="G316" s="2"/>
+      <c r="J316" s="10"/>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
-      <c r="E317" s="2"/>
-      <c r="H317" s="10"/>
+      <c r="G317" s="2"/>
+      <c r="J317" s="10"/>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
-      <c r="E318" s="2"/>
-      <c r="H318" s="10"/>
+      <c r="G318" s="2"/>
+      <c r="J318" s="10"/>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
-      <c r="E319" s="2"/>
-      <c r="H319" s="10"/>
+      <c r="G319" s="2"/>
+      <c r="J319" s="10"/>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
-      <c r="E320" s="2"/>
-      <c r="H320" s="10"/>
+      <c r="G320" s="2"/>
+      <c r="J320" s="10"/>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
-      <c r="E321" s="2"/>
-      <c r="H321" s="10"/>
+      <c r="G321" s="2"/>
+      <c r="J321" s="10"/>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
-      <c r="E322" s="2"/>
-      <c r="H322" s="10"/>
+      <c r="G322" s="2"/>
+      <c r="J322" s="10"/>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
-      <c r="E323" s="2"/>
-      <c r="H323" s="10"/>
+      <c r="G323" s="2"/>
+      <c r="J323" s="10"/>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
-      <c r="E324" s="2"/>
-      <c r="H324" s="10"/>
+      <c r="G324" s="2"/>
+      <c r="J324" s="10"/>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
-      <c r="E325" s="2"/>
-      <c r="H325" s="10"/>
+      <c r="G325" s="2"/>
+      <c r="J325" s="10"/>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
-      <c r="E326" s="2"/>
-      <c r="H326" s="10"/>
+      <c r="G326" s="2"/>
+      <c r="J326" s="10"/>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
-      <c r="E327" s="2"/>
-      <c r="H327" s="10"/>
+      <c r="G327" s="2"/>
+      <c r="J327" s="10"/>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
-      <c r="E328" s="2"/>
-      <c r="H328" s="10"/>
+      <c r="G328" s="2"/>
+      <c r="J328" s="10"/>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
-      <c r="E329" s="2"/>
-      <c r="H329" s="10"/>
+      <c r="G329" s="2"/>
+      <c r="J329" s="10"/>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
-      <c r="E330" s="2"/>
-      <c r="H330" s="10"/>
+      <c r="G330" s="2"/>
+      <c r="J330" s="10"/>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
-      <c r="E331" s="2"/>
-      <c r="H331" s="10"/>
+      <c r="G331" s="2"/>
+      <c r="J331" s="10"/>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
-      <c r="E332" s="2"/>
-      <c r="H332" s="10"/>
+      <c r="G332" s="2"/>
+      <c r="J332" s="10"/>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
-      <c r="E333" s="2"/>
-      <c r="H333" s="10"/>
+      <c r="G333" s="2"/>
+      <c r="J333" s="10"/>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
-      <c r="E334" s="2"/>
-      <c r="H334" s="10"/>
+      <c r="G334" s="2"/>
+      <c r="J334" s="10"/>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
-      <c r="E335" s="2"/>
-      <c r="H335" s="10"/>
+      <c r="G335" s="2"/>
+      <c r="J335" s="10"/>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
-      <c r="E336" s="2"/>
-      <c r="H336" s="10"/>
+      <c r="G336" s="2"/>
+      <c r="J336" s="10"/>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
-      <c r="E337" s="2"/>
-      <c r="H337" s="10"/>
+      <c r="G337" s="2"/>
+      <c r="J337" s="10"/>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
-      <c r="E338" s="2"/>
-      <c r="H338" s="10"/>
+      <c r="G338" s="2"/>
+      <c r="J338" s="10"/>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
-      <c r="E339" s="2"/>
-      <c r="H339" s="10"/>
+      <c r="G339" s="2"/>
+      <c r="J339" s="10"/>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
-      <c r="E340" s="2"/>
-      <c r="H340" s="10"/>
+      <c r="G340" s="2"/>
+      <c r="J340" s="10"/>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
-      <c r="E341" s="2"/>
-      <c r="H341" s="10"/>
+      <c r="G341" s="2"/>
+      <c r="J341" s="10"/>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
-      <c r="E342" s="2"/>
-      <c r="H342" s="10"/>
+      <c r="G342" s="2"/>
+      <c r="J342" s="10"/>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
-      <c r="E343" s="2"/>
-      <c r="H343" s="10"/>
+      <c r="G343" s="2"/>
+      <c r="J343" s="10"/>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
-      <c r="E344" s="2"/>
-      <c r="H344" s="10"/>
+      <c r="G344" s="2"/>
+      <c r="J344" s="10"/>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
-      <c r="E345" s="2"/>
-      <c r="H345" s="10"/>
+      <c r="G345" s="2"/>
+      <c r="J345" s="10"/>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
-      <c r="E346" s="2"/>
-      <c r="H346" s="10"/>
+      <c r="G346" s="2"/>
+      <c r="J346" s="10"/>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
-      <c r="E347" s="2"/>
-      <c r="H347" s="10"/>
+      <c r="G347" s="2"/>
+      <c r="J347" s="10"/>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
-      <c r="E348" s="2"/>
-      <c r="H348" s="10"/>
+      <c r="G348" s="2"/>
+      <c r="J348" s="10"/>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
-      <c r="E349" s="2"/>
-      <c r="H349" s="10"/>
+      <c r="G349" s="2"/>
+      <c r="J349" s="10"/>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
-      <c r="E350" s="2"/>
-      <c r="H350" s="10"/>
+      <c r="G350" s="2"/>
+      <c r="J350" s="10"/>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
-      <c r="E351" s="2"/>
-      <c r="H351" s="10"/>
+      <c r="G351" s="2"/>
+      <c r="J351" s="10"/>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
-      <c r="E352" s="2"/>
-      <c r="H352" s="10"/>
+      <c r="G352" s="2"/>
+      <c r="J352" s="10"/>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
-      <c r="E353" s="2"/>
-      <c r="H353" s="10"/>
+      <c r="G353" s="2"/>
+      <c r="J353" s="10"/>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
-      <c r="E354" s="2"/>
-      <c r="H354" s="10"/>
+      <c r="G354" s="2"/>
+      <c r="J354" s="10"/>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
-      <c r="E355" s="2"/>
-      <c r="H355" s="10"/>
+      <c r="G355" s="2"/>
+      <c r="J355" s="10"/>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
-      <c r="E356" s="2"/>
-      <c r="H356" s="10"/>
+      <c r="G356" s="2"/>
+      <c r="J356" s="10"/>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
-      <c r="E357" s="2"/>
-      <c r="H357" s="10"/>
+      <c r="G357" s="2"/>
+      <c r="J357" s="10"/>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
-      <c r="E358" s="2"/>
-      <c r="H358" s="10"/>
+      <c r="G358" s="2"/>
+      <c r="J358" s="10"/>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
-      <c r="E359" s="2"/>
-      <c r="H359" s="10"/>
+      <c r="G359" s="2"/>
+      <c r="J359" s="10"/>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
-      <c r="E360" s="2"/>
-      <c r="H360" s="10"/>
+      <c r="G360" s="2"/>
+      <c r="J360" s="10"/>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
-      <c r="E361" s="2"/>
-      <c r="H361" s="10"/>
+      <c r="G361" s="2"/>
+      <c r="J361" s="10"/>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
-      <c r="E362" s="2"/>
-      <c r="H362" s="10"/>
+      <c r="G362" s="2"/>
+      <c r="J362" s="10"/>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
-      <c r="E363" s="2"/>
-      <c r="H363" s="10"/>
+      <c r="G363" s="2"/>
+      <c r="J363" s="10"/>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
-      <c r="E364" s="2"/>
-      <c r="H364" s="10"/>
+      <c r="G364" s="2"/>
+      <c r="J364" s="10"/>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
-      <c r="E365" s="2"/>
-      <c r="H365" s="10"/>
+      <c r="G365" s="2"/>
+      <c r="J365" s="10"/>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
-      <c r="E366" s="2"/>
-      <c r="H366" s="10"/>
+      <c r="G366" s="2"/>
+      <c r="J366" s="10"/>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
-      <c r="E367" s="2"/>
-      <c r="H367" s="10"/>
+      <c r="G367" s="2"/>
+      <c r="J367" s="10"/>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
-      <c r="E368" s="2"/>
-      <c r="H368" s="10"/>
+      <c r="G368" s="2"/>
+      <c r="J368" s="10"/>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
-      <c r="E369" s="2"/>
-      <c r="H369" s="10"/>
+      <c r="G369" s="2"/>
+      <c r="J369" s="10"/>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
-      <c r="E370" s="2"/>
-      <c r="H370" s="10"/>
+      <c r="G370" s="2"/>
+      <c r="J370" s="10"/>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
-      <c r="E371" s="2"/>
-      <c r="H371" s="10"/>
+      <c r="G371" s="2"/>
+      <c r="J371" s="10"/>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
-      <c r="E372" s="2"/>
-      <c r="H372" s="10"/>
+      <c r="G372" s="2"/>
+      <c r="J372" s="10"/>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
-      <c r="E373" s="2"/>
-      <c r="H373" s="10"/>
+      <c r="G373" s="2"/>
+      <c r="J373" s="10"/>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
-      <c r="E374" s="2"/>
-      <c r="H374" s="10"/>
+      <c r="G374" s="2"/>
+      <c r="J374" s="10"/>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
-      <c r="E375" s="2"/>
-      <c r="H375" s="10"/>
+      <c r="G375" s="2"/>
+      <c r="J375" s="10"/>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
-      <c r="E376" s="2"/>
-      <c r="H376" s="10"/>
+      <c r="G376" s="2"/>
+      <c r="J376" s="10"/>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
-      <c r="E377" s="2"/>
-      <c r="H377" s="10"/>
+      <c r="G377" s="2"/>
+      <c r="J377" s="10"/>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
-      <c r="E378" s="2"/>
-      <c r="H378" s="10"/>
+      <c r="G378" s="2"/>
+      <c r="J378" s="10"/>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
-      <c r="E379" s="2"/>
-      <c r="H379" s="10"/>
+      <c r="G379" s="2"/>
+      <c r="J379" s="10"/>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
-      <c r="E380" s="2"/>
-      <c r="H380" s="10"/>
+      <c r="G380" s="2"/>
+      <c r="J380" s="10"/>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
-      <c r="E381" s="2"/>
-      <c r="H381" s="10"/>
+      <c r="G381" s="2"/>
+      <c r="J381" s="10"/>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
-      <c r="E382" s="2"/>
-      <c r="H382" s="10"/>
+      <c r="G382" s="2"/>
+      <c r="J382" s="10"/>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
-      <c r="E383" s="2"/>
-      <c r="H383" s="10"/>
+      <c r="G383" s="2"/>
+      <c r="J383" s="10"/>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
-      <c r="E384" s="2"/>
-      <c r="H384" s="10"/>
+      <c r="G384" s="2"/>
+      <c r="J384" s="10"/>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
-      <c r="E385" s="2"/>
-      <c r="H385" s="10"/>
+      <c r="G385" s="2"/>
+      <c r="J385" s="10"/>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
-      <c r="E386" s="2"/>
-      <c r="H386" s="10"/>
+      <c r="G386" s="2"/>
+      <c r="J386" s="10"/>
     </row>
     <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
-      <c r="E387" s="2"/>
-      <c r="H387" s="10"/>
+      <c r="G387" s="2"/>
+      <c r="J387" s="10"/>
     </row>
     <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
-      <c r="E388" s="2"/>
-      <c r="H388" s="10"/>
+      <c r="G388" s="2"/>
+      <c r="J388" s="10"/>
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
-      <c r="E389" s="2"/>
-      <c r="H389" s="10"/>
+      <c r="G389" s="2"/>
+      <c r="J389" s="10"/>
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
-      <c r="E390" s="2"/>
-      <c r="H390" s="10"/>
+      <c r="G390" s="2"/>
+      <c r="J390" s="10"/>
     </row>
     <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
-      <c r="E391" s="2"/>
-      <c r="H391" s="10"/>
+      <c r="G391" s="2"/>
+      <c r="J391" s="10"/>
     </row>
     <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
-      <c r="E392" s="2"/>
-      <c r="H392" s="10"/>
+      <c r="G392" s="2"/>
+      <c r="J392" s="10"/>
     </row>
     <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
-      <c r="E393" s="2"/>
-      <c r="H393" s="10"/>
+      <c r="G393" s="2"/>
+      <c r="J393" s="10"/>
     </row>
     <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
-      <c r="E394" s="2"/>
-      <c r="H394" s="10"/>
+      <c r="G394" s="2"/>
+      <c r="J394" s="10"/>
     </row>
     <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
-      <c r="E395" s="2"/>
-      <c r="H395" s="10"/>
+      <c r="G395" s="2"/>
+      <c r="J395" s="10"/>
     </row>
     <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
-      <c r="E396" s="2"/>
-      <c r="H396" s="10"/>
+      <c r="G396" s="2"/>
+      <c r="J396" s="10"/>
     </row>
     <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
-      <c r="E397" s="2"/>
-      <c r="H397" s="10"/>
+      <c r="G397" s="2"/>
+      <c r="J397" s="10"/>
     </row>
     <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
-      <c r="E398" s="2"/>
-      <c r="H398" s="10"/>
+      <c r="G398" s="2"/>
+      <c r="J398" s="10"/>
     </row>
     <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
-      <c r="E399" s="2"/>
-      <c r="H399" s="10"/>
+      <c r="G399" s="2"/>
+      <c r="J399" s="10"/>
     </row>
     <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
-      <c r="E400" s="2"/>
-      <c r="H400" s="10"/>
+      <c r="G400" s="2"/>
+      <c r="J400" s="10"/>
     </row>
     <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
-      <c r="E401" s="2"/>
-      <c r="H401" s="10"/>
+      <c r="G401" s="2"/>
+      <c r="J401" s="10"/>
     </row>
     <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
-      <c r="E402" s="2"/>
-      <c r="H402" s="10"/>
+      <c r="G402" s="2"/>
+      <c r="J402" s="10"/>
     </row>
     <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
-      <c r="E403" s="2"/>
-      <c r="H403" s="10"/>
+      <c r="G403" s="2"/>
+      <c r="J403" s="10"/>
     </row>
     <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
-      <c r="E404" s="2"/>
-      <c r="H404" s="10"/>
+      <c r="G404" s="2"/>
+      <c r="J404" s="10"/>
     </row>
     <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
-      <c r="E405" s="2"/>
-      <c r="H405" s="10"/>
+      <c r="G405" s="2"/>
+      <c r="J405" s="10"/>
     </row>
     <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
-      <c r="E406" s="2"/>
-      <c r="H406" s="10"/>
+      <c r="G406" s="2"/>
+      <c r="J406" s="10"/>
     </row>
     <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
-      <c r="E407" s="2"/>
-      <c r="H407" s="10"/>
+      <c r="G407" s="2"/>
+      <c r="J407" s="10"/>
     </row>
     <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
-      <c r="E408" s="2"/>
-      <c r="H408" s="10"/>
+      <c r="G408" s="2"/>
+      <c r="J408" s="10"/>
     </row>
     <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
-      <c r="E409" s="2"/>
-      <c r="H409" s="10"/>
+      <c r="G409" s="2"/>
+      <c r="J409" s="10"/>
     </row>
     <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
-      <c r="E410" s="2"/>
-      <c r="H410" s="10"/>
+      <c r="G410" s="2"/>
+      <c r="J410" s="10"/>
     </row>
     <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
-      <c r="E411" s="2"/>
-      <c r="H411" s="10"/>
+      <c r="G411" s="2"/>
+      <c r="J411" s="10"/>
     </row>
     <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
-      <c r="E412" s="2"/>
-      <c r="H412" s="10"/>
+      <c r="G412" s="2"/>
+      <c r="J412" s="10"/>
     </row>
     <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
-      <c r="E413" s="2"/>
-      <c r="H413" s="10"/>
+      <c r="G413" s="2"/>
+      <c r="J413" s="10"/>
     </row>
     <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
-      <c r="E414" s="2"/>
-      <c r="H414" s="10"/>
+      <c r="G414" s="2"/>
+      <c r="J414" s="10"/>
     </row>
     <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
-      <c r="E415" s="2"/>
-      <c r="H415" s="10"/>
+      <c r="G415" s="2"/>
+      <c r="J415" s="10"/>
     </row>
     <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
-      <c r="E416" s="2"/>
-      <c r="H416" s="10"/>
+      <c r="G416" s="2"/>
+      <c r="J416" s="10"/>
     </row>
     <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
-      <c r="E417" s="2"/>
-      <c r="H417" s="10"/>
+      <c r="G417" s="2"/>
+      <c r="J417" s="10"/>
     </row>
     <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
-      <c r="E418" s="2"/>
-      <c r="H418" s="10"/>
+      <c r="G418" s="2"/>
+      <c r="J418" s="10"/>
     </row>
     <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
-      <c r="E419" s="2"/>
-      <c r="H419" s="10"/>
+      <c r="G419" s="2"/>
+      <c r="J419" s="10"/>
     </row>
     <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
-      <c r="E420" s="2"/>
-      <c r="H420" s="10"/>
+      <c r="G420" s="2"/>
+      <c r="J420" s="10"/>
     </row>
     <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
-      <c r="E421" s="2"/>
-      <c r="H421" s="10"/>
+      <c r="G421" s="2"/>
+      <c r="J421" s="10"/>
     </row>
     <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
-      <c r="E422" s="2"/>
-      <c r="H422" s="10"/>
+      <c r="G422" s="2"/>
+      <c r="J422" s="10"/>
     </row>
     <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
-      <c r="E423" s="2"/>
-      <c r="H423" s="10"/>
+      <c r="G423" s="2"/>
+      <c r="J423" s="10"/>
     </row>
     <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
-      <c r="E424" s="2"/>
-      <c r="H424" s="10"/>
+      <c r="G424" s="2"/>
+      <c r="J424" s="10"/>
     </row>
     <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
-      <c r="E425" s="2"/>
-      <c r="H425" s="10"/>
+      <c r="G425" s="2"/>
+      <c r="J425" s="10"/>
     </row>
     <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
-      <c r="E426" s="2"/>
-      <c r="H426" s="10"/>
+      <c r="G426" s="2"/>
+      <c r="J426" s="10"/>
     </row>
     <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
-      <c r="E427" s="2"/>
-      <c r="H427" s="10"/>
+      <c r="G427" s="2"/>
+      <c r="J427" s="10"/>
     </row>
     <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
-      <c r="E428" s="2"/>
-      <c r="H428" s="10"/>
+      <c r="G428" s="2"/>
+      <c r="J428" s="10"/>
     </row>
     <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
-      <c r="E429" s="2"/>
-      <c r="H429" s="10"/>
+      <c r="G429" s="2"/>
+      <c r="J429" s="10"/>
     </row>
     <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
-      <c r="E430" s="2"/>
-      <c r="H430" s="10"/>
+      <c r="G430" s="2"/>
+      <c r="J430" s="10"/>
     </row>
     <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
-      <c r="E431" s="2"/>
-      <c r="H431" s="10"/>
+      <c r="G431" s="2"/>
+      <c r="J431" s="10"/>
     </row>
     <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
-      <c r="E432" s="2"/>
-      <c r="H432" s="10"/>
+      <c r="G432" s="2"/>
+      <c r="J432" s="10"/>
     </row>
     <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
-      <c r="E433" s="2"/>
-      <c r="H433" s="10"/>
+      <c r="G433" s="2"/>
+      <c r="J433" s="10"/>
     </row>
     <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
-      <c r="E434" s="2"/>
-      <c r="H434" s="10"/>
+      <c r="G434" s="2"/>
+      <c r="J434" s="10"/>
     </row>
     <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
-      <c r="E435" s="2"/>
-      <c r="H435" s="10"/>
+      <c r="G435" s="2"/>
+      <c r="J435" s="10"/>
     </row>
     <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
-      <c r="E436" s="2"/>
-      <c r="H436" s="10"/>
+      <c r="G436" s="2"/>
+      <c r="J436" s="10"/>
     </row>
     <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
-      <c r="E437" s="2"/>
-      <c r="H437" s="10"/>
+      <c r="G437" s="2"/>
+      <c r="J437" s="10"/>
     </row>
     <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
-      <c r="E438" s="2"/>
-      <c r="H438" s="10"/>
+      <c r="G438" s="2"/>
+      <c r="J438" s="10"/>
     </row>
     <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
-      <c r="E439" s="2"/>
-      <c r="H439" s="10"/>
+      <c r="G439" s="2"/>
+      <c r="J439" s="10"/>
     </row>
     <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
-      <c r="E440" s="2"/>
-      <c r="H440" s="10"/>
+      <c r="G440" s="2"/>
+      <c r="J440" s="10"/>
     </row>
     <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
-      <c r="E441" s="2"/>
-      <c r="H441" s="10"/>
+      <c r="G441" s="2"/>
+      <c r="J441" s="10"/>
     </row>
     <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
-      <c r="E442" s="2"/>
-      <c r="H442" s="10"/>
+      <c r="G442" s="2"/>
+      <c r="J442" s="10"/>
     </row>
     <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
-      <c r="E443" s="2"/>
-      <c r="H443" s="10"/>
+      <c r="G443" s="2"/>
+      <c r="J443" s="10"/>
     </row>
     <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
-      <c r="E444" s="2"/>
-      <c r="H444" s="10"/>
+      <c r="G444" s="2"/>
+      <c r="J444" s="10"/>
     </row>
     <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
-      <c r="E445" s="2"/>
-      <c r="H445" s="10"/>
+      <c r="G445" s="2"/>
+      <c r="J445" s="10"/>
     </row>
     <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
-      <c r="E446" s="2"/>
-      <c r="H446" s="10"/>
+      <c r="G446" s="2"/>
+      <c r="J446" s="10"/>
     </row>
     <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
-      <c r="E447" s="2"/>
-      <c r="H447" s="10"/>
+      <c r="G447" s="2"/>
+      <c r="J447" s="10"/>
     </row>
     <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
-      <c r="E448" s="2"/>
-      <c r="H448" s="10"/>
+      <c r="G448" s="2"/>
+      <c r="J448" s="10"/>
     </row>
     <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
-      <c r="E449" s="2"/>
-      <c r="H449" s="10"/>
+      <c r="G449" s="2"/>
+      <c r="J449" s="10"/>
     </row>
     <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
-      <c r="E450" s="2"/>
-      <c r="H450" s="10"/>
+      <c r="G450" s="2"/>
+      <c r="J450" s="10"/>
     </row>
     <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
-      <c r="E451" s="2"/>
-      <c r="H451" s="10"/>
+      <c r="G451" s="2"/>
+      <c r="J451" s="10"/>
     </row>
     <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
-      <c r="E452" s="2"/>
-      <c r="H452" s="10"/>
+      <c r="G452" s="2"/>
+      <c r="J452" s="10"/>
     </row>
     <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
-      <c r="E453" s="2"/>
-      <c r="H453" s="10"/>
+      <c r="G453" s="2"/>
+      <c r="J453" s="10"/>
     </row>
     <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
-      <c r="E454" s="2"/>
-      <c r="H454" s="10"/>
+      <c r="G454" s="2"/>
+      <c r="J454" s="10"/>
     </row>
     <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
-      <c r="E455" s="2"/>
-      <c r="H455" s="10"/>
+      <c r="G455" s="2"/>
+      <c r="J455" s="10"/>
     </row>
     <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
-      <c r="E456" s="2"/>
-      <c r="H456" s="10"/>
+      <c r="G456" s="2"/>
+      <c r="J456" s="10"/>
     </row>
     <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
-      <c r="E457" s="2"/>
-      <c r="H457" s="10"/>
+      <c r="G457" s="2"/>
+      <c r="J457" s="10"/>
     </row>
     <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
-      <c r="E458" s="2"/>
-      <c r="H458" s="10"/>
+      <c r="G458" s="2"/>
+      <c r="J458" s="10"/>
     </row>
     <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
-      <c r="E459" s="2"/>
-      <c r="H459" s="10"/>
+      <c r="G459" s="2"/>
+      <c r="J459" s="10"/>
     </row>
     <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
-      <c r="E460" s="2"/>
-      <c r="H460" s="10"/>
+      <c r="G460" s="2"/>
+      <c r="J460" s="10"/>
     </row>
     <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
-      <c r="E461" s="2"/>
-      <c r="H461" s="10"/>
+      <c r="G461" s="2"/>
+      <c r="J461" s="10"/>
     </row>
     <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
-      <c r="E462" s="2"/>
-      <c r="H462" s="10"/>
+      <c r="G462" s="2"/>
+      <c r="J462" s="10"/>
     </row>
     <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
-      <c r="E463" s="2"/>
-      <c r="H463" s="10"/>
+      <c r="G463" s="2"/>
+      <c r="J463" s="10"/>
     </row>
     <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
-      <c r="E464" s="2"/>
-      <c r="H464" s="10"/>
+      <c r="G464" s="2"/>
+      <c r="J464" s="10"/>
     </row>
     <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
-      <c r="E465" s="2"/>
-      <c r="H465" s="10"/>
+      <c r="G465" s="2"/>
+      <c r="J465" s="10"/>
     </row>
     <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
-      <c r="E466" s="2"/>
-      <c r="H466" s="10"/>
+      <c r="G466" s="2"/>
+      <c r="J466" s="10"/>
     </row>
     <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
-      <c r="E467" s="2"/>
-      <c r="H467" s="10"/>
+      <c r="G467" s="2"/>
+      <c r="J467" s="10"/>
     </row>
     <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
-      <c r="E468" s="2"/>
-      <c r="H468" s="10"/>
+      <c r="G468" s="2"/>
+      <c r="J468" s="10"/>
     </row>
     <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
-      <c r="E469" s="2"/>
-      <c r="H469" s="10"/>
+      <c r="G469" s="2"/>
+      <c r="J469" s="10"/>
     </row>
     <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
-      <c r="E470" s="2"/>
-      <c r="H470" s="10"/>
+      <c r="G470" s="2"/>
+      <c r="J470" s="10"/>
     </row>
     <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
-      <c r="E471" s="2"/>
-      <c r="H471" s="10"/>
+      <c r="G471" s="2"/>
+      <c r="J471" s="10"/>
     </row>
     <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
-      <c r="E472" s="2"/>
-      <c r="H472" s="10"/>
+      <c r="G472" s="2"/>
+      <c r="J472" s="10"/>
     </row>
     <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
-      <c r="E473" s="2"/>
-      <c r="H473" s="10"/>
+      <c r="G473" s="2"/>
+      <c r="J473" s="10"/>
     </row>
     <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
-      <c r="E474" s="2"/>
-      <c r="H474" s="10"/>
+      <c r="G474" s="2"/>
+      <c r="J474" s="10"/>
     </row>
     <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
-      <c r="E475" s="2"/>
-      <c r="H475" s="10"/>
+      <c r="G475" s="2"/>
+      <c r="J475" s="10"/>
     </row>
     <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
-      <c r="E476" s="2"/>
-      <c r="H476" s="10"/>
+      <c r="G476" s="2"/>
+      <c r="J476" s="10"/>
     </row>
     <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
-      <c r="E477" s="2"/>
-      <c r="H477" s="10"/>
+      <c r="G477" s="2"/>
+      <c r="J477" s="10"/>
     </row>
     <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
-      <c r="E478" s="2"/>
-      <c r="H478" s="10"/>
+      <c r="G478" s="2"/>
+      <c r="J478" s="10"/>
     </row>
     <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
-      <c r="E479" s="2"/>
-      <c r="H479" s="10"/>
+      <c r="G479" s="2"/>
+      <c r="J479" s="10"/>
     </row>
     <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
-      <c r="E480" s="2"/>
-      <c r="H480" s="10"/>
+      <c r="G480" s="2"/>
+      <c r="J480" s="10"/>
     </row>
     <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
-      <c r="E481" s="2"/>
-      <c r="H481" s="10"/>
+      <c r="G481" s="2"/>
+      <c r="J481" s="10"/>
     </row>
     <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
-      <c r="E482" s="2"/>
-      <c r="H482" s="10"/>
+      <c r="G482" s="2"/>
+      <c r="J482" s="10"/>
     </row>
     <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
-      <c r="E483" s="2"/>
-      <c r="H483" s="10"/>
+      <c r="G483" s="2"/>
+      <c r="J483" s="10"/>
     </row>
     <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
-      <c r="E484" s="2"/>
-      <c r="H484" s="10"/>
+      <c r="G484" s="2"/>
+      <c r="J484" s="10"/>
     </row>
     <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
-      <c r="E485" s="2"/>
-      <c r="H485" s="10"/>
+      <c r="G485" s="2"/>
+      <c r="J485" s="10"/>
     </row>
     <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
-      <c r="E486" s="2"/>
-      <c r="H486" s="10"/>
+      <c r="G486" s="2"/>
+      <c r="J486" s="10"/>
     </row>
     <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
-      <c r="E487" s="2"/>
-      <c r="H487" s="10"/>
+      <c r="G487" s="2"/>
+      <c r="J487" s="10"/>
     </row>
     <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
-      <c r="E488" s="2"/>
-      <c r="H488" s="10"/>
+      <c r="G488" s="2"/>
+      <c r="J488" s="10"/>
     </row>
     <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
-      <c r="E489" s="2"/>
-      <c r="H489" s="10"/>
+      <c r="G489" s="2"/>
+      <c r="J489" s="10"/>
     </row>
     <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
-      <c r="E490" s="2"/>
-      <c r="H490" s="10"/>
+      <c r="G490" s="2"/>
+      <c r="J490" s="10"/>
     </row>
     <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
-      <c r="E491" s="2"/>
-      <c r="H491" s="10"/>
+      <c r="G491" s="2"/>
+      <c r="J491" s="10"/>
     </row>
     <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
-      <c r="E492" s="2"/>
-      <c r="H492" s="10"/>
+      <c r="G492" s="2"/>
+      <c r="J492" s="10"/>
     </row>
     <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
-      <c r="E493" s="2"/>
-      <c r="H493" s="10"/>
+      <c r="G493" s="2"/>
+      <c r="J493" s="10"/>
     </row>
     <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
-      <c r="E494" s="2"/>
-      <c r="H494" s="10"/>
+      <c r="G494" s="2"/>
+      <c r="J494" s="10"/>
     </row>
     <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
-      <c r="E495" s="2"/>
-      <c r="H495" s="10"/>
+      <c r="G495" s="2"/>
+      <c r="J495" s="10"/>
     </row>
     <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
-      <c r="E496" s="2"/>
-      <c r="H496" s="10"/>
+      <c r="G496" s="2"/>
+      <c r="J496" s="10"/>
     </row>
     <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
-      <c r="E497" s="2"/>
-      <c r="H497" s="10"/>
+      <c r="G497" s="2"/>
+      <c r="J497" s="10"/>
     </row>
     <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
-      <c r="E498" s="2"/>
-      <c r="H498" s="10"/>
+      <c r="G498" s="2"/>
+      <c r="J498" s="10"/>
     </row>
     <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
-      <c r="E499" s="2"/>
-      <c r="H499" s="10"/>
+      <c r="G499" s="2"/>
+      <c r="J499" s="10"/>
     </row>
     <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
-      <c r="E500" s="2"/>
-      <c r="H500" s="10"/>
+      <c r="G500" s="2"/>
+      <c r="J500" s="10"/>
     </row>
     <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
-      <c r="E501" s="2"/>
-      <c r="H501" s="10"/>
+      <c r="G501" s="2"/>
+      <c r="J501" s="10"/>
     </row>
     <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
-      <c r="E502" s="2"/>
-      <c r="H502" s="10"/>
+      <c r="G502" s="2"/>
+      <c r="J502" s="10"/>
     </row>
     <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
-      <c r="E503" s="2"/>
-      <c r="H503" s="10"/>
+      <c r="G503" s="2"/>
+      <c r="J503" s="10"/>
     </row>
     <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
-      <c r="E504" s="2"/>
-      <c r="H504" s="10"/>
+      <c r="G504" s="2"/>
+      <c r="J504" s="10"/>
     </row>
     <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
-      <c r="E505" s="2"/>
-      <c r="H505" s="10"/>
+      <c r="G505" s="2"/>
+      <c r="J505" s="10"/>
     </row>
     <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
-      <c r="E506" s="2"/>
-      <c r="H506" s="10"/>
+      <c r="G506" s="2"/>
+      <c r="J506" s="10"/>
     </row>
     <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
-      <c r="E507" s="2"/>
-      <c r="H507" s="10"/>
+      <c r="G507" s="2"/>
+      <c r="J507" s="10"/>
     </row>
     <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
-      <c r="E508" s="2"/>
-      <c r="H508" s="10"/>
+      <c r="G508" s="2"/>
+      <c r="J508" s="10"/>
     </row>
     <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
-      <c r="E509" s="2"/>
-      <c r="H509" s="10"/>
+      <c r="G509" s="2"/>
+      <c r="J509" s="10"/>
     </row>
     <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
-      <c r="E510" s="2"/>
-      <c r="H510" s="10"/>
+      <c r="G510" s="2"/>
+      <c r="J510" s="10"/>
     </row>
     <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
-      <c r="E511" s="2"/>
-      <c r="H511" s="10"/>
+      <c r="G511" s="2"/>
+      <c r="J511" s="10"/>
     </row>
     <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
-      <c r="E512" s="2"/>
-      <c r="H512" s="10"/>
+      <c r="G512" s="2"/>
+      <c r="J512" s="10"/>
     </row>
     <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
-      <c r="E513" s="2"/>
-      <c r="H513" s="10"/>
+      <c r="G513" s="2"/>
+      <c r="J513" s="10"/>
     </row>
     <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
-      <c r="E514" s="2"/>
-      <c r="H514" s="10"/>
+      <c r="G514" s="2"/>
+      <c r="J514" s="10"/>
     </row>
     <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
-      <c r="E515" s="2"/>
-      <c r="H515" s="10"/>
+      <c r="G515" s="2"/>
+      <c r="J515" s="10"/>
     </row>
     <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
-      <c r="E516" s="2"/>
-      <c r="H516" s="10"/>
+      <c r="G516" s="2"/>
+      <c r="J516" s="10"/>
     </row>
     <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
-      <c r="E517" s="2"/>
-      <c r="H517" s="10"/>
+      <c r="G517" s="2"/>
+      <c r="J517" s="10"/>
     </row>
     <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
-      <c r="E518" s="2"/>
-      <c r="H518" s="10"/>
+      <c r="G518" s="2"/>
+      <c r="J518" s="10"/>
     </row>
     <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
-      <c r="E519" s="2"/>
-      <c r="H519" s="10"/>
+      <c r="G519" s="2"/>
+      <c r="J519" s="10"/>
     </row>
     <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
-      <c r="E520" s="2"/>
-      <c r="H520" s="10"/>
+      <c r="G520" s="2"/>
+      <c r="J520" s="10"/>
     </row>
     <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
-      <c r="E521" s="2"/>
-      <c r="H521" s="10"/>
+      <c r="G521" s="2"/>
+      <c r="J521" s="10"/>
     </row>
     <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
-      <c r="E522" s="2"/>
-      <c r="H522" s="10"/>
+      <c r="G522" s="2"/>
+      <c r="J522" s="10"/>
     </row>
     <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
-      <c r="E523" s="2"/>
-      <c r="H523" s="10"/>
+      <c r="G523" s="2"/>
+      <c r="J523" s="10"/>
     </row>
     <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
-      <c r="E524" s="2"/>
-      <c r="H524" s="10"/>
+      <c r="G524" s="2"/>
+      <c r="J524" s="10"/>
     </row>
     <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
-      <c r="E525" s="2"/>
-      <c r="H525" s="10"/>
+      <c r="G525" s="2"/>
+      <c r="J525" s="10"/>
     </row>
     <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
-      <c r="E526" s="2"/>
-      <c r="H526" s="10"/>
+      <c r="G526" s="2"/>
+      <c r="J526" s="10"/>
     </row>
     <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
-      <c r="E527" s="2"/>
-      <c r="H527" s="10"/>
+      <c r="G527" s="2"/>
+      <c r="J527" s="10"/>
     </row>
     <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
-      <c r="E528" s="2"/>
-      <c r="H528" s="10"/>
+      <c r="G528" s="2"/>
+      <c r="J528" s="10"/>
     </row>
     <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
-      <c r="E529" s="2"/>
-      <c r="H529" s="10"/>
+      <c r="G529" s="2"/>
+      <c r="J529" s="10"/>
     </row>
     <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
-      <c r="E530" s="2"/>
-      <c r="H530" s="10"/>
+      <c r="G530" s="2"/>
+      <c r="J530" s="10"/>
     </row>
     <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
-      <c r="E531" s="2"/>
-      <c r="H531" s="10"/>
+      <c r="G531" s="2"/>
+      <c r="J531" s="10"/>
     </row>
     <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
-      <c r="E532" s="2"/>
-      <c r="H532" s="10"/>
+      <c r="G532" s="2"/>
+      <c r="J532" s="10"/>
     </row>
     <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
-      <c r="E533" s="2"/>
-      <c r="H533" s="10"/>
+      <c r="G533" s="2"/>
+      <c r="J533" s="10"/>
     </row>
     <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
-      <c r="E534" s="2"/>
-      <c r="H534" s="10"/>
+      <c r="G534" s="2"/>
+      <c r="J534" s="10"/>
     </row>
     <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
-      <c r="E535" s="2"/>
-      <c r="H535" s="10"/>
+      <c r="G535" s="2"/>
+      <c r="J535" s="10"/>
     </row>
     <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
-      <c r="E536" s="2"/>
-      <c r="H536" s="10"/>
+      <c r="G536" s="2"/>
+      <c r="J536" s="10"/>
     </row>
     <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
-      <c r="E537" s="2"/>
-      <c r="H537" s="10"/>
+      <c r="G537" s="2"/>
+      <c r="J537" s="10"/>
     </row>
     <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
-      <c r="E538" s="2"/>
-      <c r="H538" s="10"/>
+      <c r="G538" s="2"/>
+      <c r="J538" s="10"/>
     </row>
     <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
-      <c r="E539" s="2"/>
-      <c r="H539" s="10"/>
+      <c r="G539" s="2"/>
+      <c r="J539" s="10"/>
     </row>
     <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
-      <c r="E540" s="2"/>
-      <c r="H540" s="10"/>
+      <c r="G540" s="2"/>
+      <c r="J540" s="10"/>
     </row>
     <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
-      <c r="E541" s="2"/>
-      <c r="H541" s="10"/>
+      <c r="G541" s="2"/>
+      <c r="J541" s="10"/>
     </row>
     <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
-      <c r="E542" s="2"/>
-      <c r="H542" s="10"/>
+      <c r="G542" s="2"/>
+      <c r="J542" s="10"/>
     </row>
     <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
-      <c r="E543" s="2"/>
-      <c r="H543" s="10"/>
+      <c r="G543" s="2"/>
+      <c r="J543" s="10"/>
     </row>
     <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
-      <c r="E544" s="2"/>
-      <c r="H544" s="10"/>
+      <c r="G544" s="2"/>
+      <c r="J544" s="10"/>
     </row>
     <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
-      <c r="E545" s="2"/>
-      <c r="H545" s="10"/>
+      <c r="G545" s="2"/>
+      <c r="J545" s="10"/>
     </row>
     <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
-      <c r="E546" s="2"/>
-      <c r="H546" s="10"/>
+      <c r="G546" s="2"/>
+      <c r="J546" s="10"/>
     </row>
     <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
-      <c r="E547" s="2"/>
-      <c r="H547" s="10"/>
+      <c r="G547" s="2"/>
+      <c r="J547" s="10"/>
     </row>
     <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
-      <c r="E548" s="2"/>
-      <c r="H548" s="10"/>
+      <c r="G548" s="2"/>
+      <c r="J548" s="10"/>
     </row>
     <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
-      <c r="E549" s="2"/>
-      <c r="H549" s="10"/>
+      <c r="G549" s="2"/>
+      <c r="J549" s="10"/>
     </row>
     <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
-      <c r="E550" s="2"/>
-      <c r="H550" s="10"/>
+      <c r="G550" s="2"/>
+      <c r="J550" s="10"/>
     </row>
     <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
-      <c r="E551" s="2"/>
-      <c r="H551" s="10"/>
+      <c r="G551" s="2"/>
+      <c r="J551" s="10"/>
     </row>
     <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
-      <c r="E552" s="2"/>
-      <c r="H552" s="10"/>
+      <c r="G552" s="2"/>
+      <c r="J552" s="10"/>
     </row>
     <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
-      <c r="E553" s="2"/>
-      <c r="H553" s="10"/>
+      <c r="G553" s="2"/>
+      <c r="J553" s="10"/>
     </row>
     <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
-      <c r="E554" s="2"/>
-      <c r="H554" s="10"/>
+      <c r="G554" s="2"/>
+      <c r="J554" s="10"/>
     </row>
     <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
-      <c r="E555" s="2"/>
-      <c r="H555" s="10"/>
+      <c r="G555" s="2"/>
+      <c r="J555" s="10"/>
     </row>
     <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
-      <c r="E556" s="2"/>
-      <c r="H556" s="10"/>
+      <c r="G556" s="2"/>
+      <c r="J556" s="10"/>
     </row>
     <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
-      <c r="E557" s="2"/>
-      <c r="H557" s="10"/>
+      <c r="G557" s="2"/>
+      <c r="J557" s="10"/>
     </row>
     <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
-      <c r="E558" s="2"/>
+      <c r="F558" s="2"/>
     </row>
     <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A559" s="2"/>
@@ -7546,7 +8002,7 @@
       <formula1>Index!$B$2:$B$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6:H557" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J557" type="list">
       <formula1>Index!$A$2:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -7566,52 +8022,52 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -7620,7 +8076,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" s="16"/>
     </row>
@@ -7629,7 +8085,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" s="16"/>
     </row>
@@ -7638,7 +8094,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" s="16"/>
     </row>
@@ -7647,7 +8103,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" s="16"/>
     </row>
@@ -7656,7 +8112,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C15" s="16"/>
     </row>
@@ -7665,7 +8121,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C16" s="16"/>
     </row>
@@ -7674,7 +8130,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C17" s="16"/>
     </row>
@@ -7683,7 +8139,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C18" s="16"/>
     </row>
@@ -7692,7 +8148,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" s="16"/>
     </row>
@@ -7701,7 +8157,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" s="16"/>
     </row>
@@ -7710,7 +8166,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C21" s="16"/>
     </row>
@@ -7719,7 +8175,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C22" s="16"/>
     </row>
@@ -7728,7 +8184,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C23" s="16"/>
     </row>
@@ -7737,7 +8193,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C24" s="16"/>
     </row>
@@ -7746,7 +8202,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C25" s="16"/>
     </row>
@@ -7754,12 +8210,30 @@
       <c r="A26" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="17" t="s">
-        <v>45</v>
+      <c r="B26" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="C26" s="16"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="16"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="16"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7782,7 +8256,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.43"/>
@@ -7793,60 +8267,60 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>50</v>
-      </c>
       <c r="D3" s="12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/backend/fms_core/static/submission_templates/Normalization_planning_v4_4_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Normalization_planning_v4_4_0.xlsx
@@ -144,10 +144,10 @@
     <t xml:space="preserve">Source Container Coord</t>
   </si>
   <si>
-    <t xml:space="preserve">Source Container Location Barcode</t>
+    <t xml:space="preserve">Source Parent Container Barcode</t>
   </si>
   <si>
-    <t xml:space="preserve">Source Container Location Coord</t>
+    <t xml:space="preserve">Source Parent Container Coord</t>
   </si>
   <si>
     <t xml:space="preserve">Destination Container Barcode</t>
@@ -677,7 +677,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.49609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="24.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.86"/>
@@ -8028,7 +8028,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.83"/>
   </cols>
@@ -8256,7 +8256,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.49609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.43"/>
